--- a/ES 2-3.P288 14.08.2020.xlsx
+++ b/ES 2-3.P288 14.08.2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsint\Desktop\niko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A29368-2CEB-4B8E-897D-0DB7DC8157C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5E63CA-77E7-4A16-9FCC-6EE050737E91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -293,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -391,37 +391,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -438,6 +407,76 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -448,33 +487,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -482,12 +503,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -500,19 +515,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -523,10 +526,7 @@
     <xf numFmtId="16" fontId="3" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="3" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -543,15 +543,56 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="15" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Migliaia" xfId="1" builtinId="3"/>
@@ -846,200 +887,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="47"/>
     </row>
     <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="16">
         <v>9540</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="16">
         <v>10475</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="17">
         <f>C4-B4</f>
         <v>935</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="16">
         <v>26890</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="16">
         <v>25938</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="17">
         <f t="shared" ref="D5:D10" si="0">C5-B5</f>
         <v>-952</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="16">
         <v>18790</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="16">
         <v>15880</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="17">
         <f t="shared" si="0"/>
         <v>-2910</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="16">
         <v>12468</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="16">
         <v>13758</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="17">
         <f t="shared" si="0"/>
         <v>1290</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="16">
         <v>6843</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="16">
         <v>8758</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="17">
         <f t="shared" si="0"/>
         <v>1915</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="16">
         <v>3698</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="16">
         <v>5740</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="17">
         <f t="shared" si="0"/>
         <v>2042</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>78229</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <f>SUM(C4:C9)</f>
         <v>80549</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="11">
         <f t="shared" si="0"/>
         <v>2320</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <f>AVERAGE(B4:B9)</f>
         <v>13038.166666666666</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <f t="shared" ref="C11:D11" si="1">AVERAGE(C4:C9)</f>
         <v>13424.833333333334</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="18">
         <f t="shared" si="1"/>
         <v>386.66666666666669</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <f>MAX(B4:B9)</f>
         <v>26890</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <f t="shared" ref="C12:D12" si="2">MAX(C4:C9)</f>
         <v>25938</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="18">
         <f t="shared" si="2"/>
         <v>2042</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <f>MIN(B4:B9)</f>
         <v>3698</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <f t="shared" ref="C13:D13" si="3">MIN(C4:C9)</f>
         <v>5740</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="18">
         <f t="shared" si="3"/>
         <v>-2910</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="27">
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="19">
         <f>COUNTA(A4:A9)</f>
         <v>6</v>
       </c>
@@ -1064,7 +1105,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1075,181 +1116,220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="28" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41">
+      <c r="A3" s="59">
         <v>44129</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="57">
         <v>35815.269999999997</v>
       </c>
-      <c r="D3" s="48">
+      <c r="D3" s="58">
         <v>12640.25</v>
       </c>
-      <c r="E3" s="49">
+      <c r="E3" s="60">
         <f>C3-D3</f>
         <v>23175.019999999997</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42">
+      <c r="A4" s="29">
         <v>44129</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50">
+      <c r="C4" s="54"/>
+      <c r="D4" s="35">
         <v>289.75</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="36">
         <f>E3+C4-D4</f>
         <v>22885.269999999997</v>
       </c>
-      <c r="F4" s="28"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41">
+      <c r="A5" s="29">
         <v>44129</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="54">
         <v>1980.75</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36">
+        <f>E4+C5-D5</f>
+        <v>24866.019999999997</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
+      <c r="A6" s="29">
         <v>44129</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="54">
         <v>3650.84</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36">
+        <f>E5+C6-D6</f>
+        <v>28516.859999999997</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="41">
+      <c r="A7" s="29">
         <v>44129</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48">
+      <c r="C7" s="54"/>
+      <c r="D7" s="35">
         <v>5986.35</v>
       </c>
-      <c r="E7" s="49"/>
+      <c r="E7" s="36">
+        <f t="shared" ref="E7:E11" si="0">E6+C7-D7</f>
+        <v>22530.509999999995</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41">
+      <c r="A8" s="29">
         <v>44129</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48">
+      <c r="C8" s="54"/>
+      <c r="D8" s="35">
         <v>2581.6</v>
       </c>
-      <c r="E8" s="49"/>
+      <c r="E8" s="36">
+        <f t="shared" si="0"/>
+        <v>19948.909999999996</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41">
+      <c r="A9" s="29">
         <v>44129</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="54">
         <v>2896.37</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="36">
+        <f t="shared" si="0"/>
+        <v>22845.279999999995</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+      <c r="A10" s="29">
         <v>44129</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="54">
         <v>451.85</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36">
+        <f t="shared" si="0"/>
+        <v>23297.129999999994</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43">
+      <c r="A11" s="30">
         <v>44129</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52">
+      <c r="C11" s="55"/>
+      <c r="D11" s="37">
         <v>1285.5</v>
       </c>
-      <c r="E11" s="53"/>
+      <c r="E11" s="38">
+        <f t="shared" si="0"/>
+        <v>22011.629999999994</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44">
+      <c r="A12" s="31">
         <v>44129</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="55"/>
+      <c r="C12" s="39">
+        <f>SUM(C4:C11)</f>
+        <v>8979.81</v>
+      </c>
+      <c r="D12" s="39">
+        <f t="shared" ref="D12:E12" si="1">SUM(D4:D11)</f>
+        <v>10143.200000000001</v>
+      </c>
+      <c r="E12" s="40">
+        <f t="shared" si="1"/>
+        <v>186901.61</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="46">
+      <c r="A13" s="33">
         <v>44129</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
+      <c r="C13" s="41">
+        <f>C3+C12</f>
+        <v>44795.079999999994</v>
+      </c>
+      <c r="D13" s="41">
+        <f>D3+D12</f>
+        <v>22783.45</v>
+      </c>
+      <c r="E13" s="53">
+        <f>E3+E12</f>
+        <v>210076.62999999998</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D14" s="29"/>
+      <c r="D14" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
